--- a/knee_names.xlsx
+++ b/knee_names.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\JIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JIA_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5EE348-BB4D-4ED5-90E3-3AEAE0DB873C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6D0775-741C-4647-A44E-FADBD49B407F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="30" windowWidth="9660" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="knee_names" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>names</t>
   </si>
@@ -392,6 +392,240 @@
   </si>
   <si>
     <t>left</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>abbaszadeh_ermia</t>
+  </si>
+  <si>
+    <t>abedi_iliya</t>
+  </si>
+  <si>
+    <t>ahmadian_amir</t>
+  </si>
+  <si>
+    <t>ahmadpour_yasna</t>
+  </si>
+  <si>
+    <t>ali</t>
+  </si>
+  <si>
+    <t>amiri_mahla</t>
+  </si>
+  <si>
+    <t>asadolahi</t>
+  </si>
+  <si>
+    <t>ashoori_narges</t>
+  </si>
+  <si>
+    <t>bagheri_amir</t>
+  </si>
+  <si>
+    <t>barzegar_kasra</t>
+  </si>
+  <si>
+    <t>chamani_mahdi</t>
+  </si>
+  <si>
+    <t>dana_kiarash</t>
+  </si>
+  <si>
+    <t>darmanloo_yasin</t>
+  </si>
+  <si>
+    <t>dehghanizadeh_paria</t>
+  </si>
+  <si>
+    <t>divband_sadra</t>
+  </si>
+  <si>
+    <t>ebrahimi_mohammad</t>
+  </si>
+  <si>
+    <t>ehsanifar_abdolbaes</t>
+  </si>
+  <si>
+    <t>farhadi_mohadeseh</t>
+  </si>
+  <si>
+    <t>ghahremani_amir</t>
+  </si>
+  <si>
+    <t>gharehbabayee_taha</t>
+  </si>
+  <si>
+    <t>gharehkhani</t>
+  </si>
+  <si>
+    <t>ghorbani_hamidreza</t>
+  </si>
+  <si>
+    <t>goli_amiar</t>
+  </si>
+  <si>
+    <t>goli_amyar</t>
+  </si>
+  <si>
+    <t>golpour</t>
+  </si>
+  <si>
+    <t>hafizian_mohamad</t>
+  </si>
+  <si>
+    <t>hamidi_ehsan</t>
+  </si>
+  <si>
+    <t>hamlevar_nima</t>
+  </si>
+  <si>
+    <t>hedayat_mohammadhossein</t>
+  </si>
+  <si>
+    <t>hojjati_zahra</t>
+  </si>
+  <si>
+    <t>hooti</t>
+  </si>
+  <si>
+    <t>jafari_amir</t>
+  </si>
+  <si>
+    <t>kazemi</t>
+  </si>
+  <si>
+    <t>kazemi_amirmohammad</t>
+  </si>
+  <si>
+    <t>khamesi_arshan</t>
+  </si>
+  <si>
+    <t>khoshtarash</t>
+  </si>
+  <si>
+    <t>layeghi_parmis</t>
+  </si>
+  <si>
+    <t>mahdizadeh_kimia</t>
+  </si>
+  <si>
+    <t>mamoo_melika</t>
+  </si>
+  <si>
+    <t>masoumnejhad_ario</t>
+  </si>
+  <si>
+    <t>mehran_mahzad</t>
+  </si>
+  <si>
+    <t>mirtalebi_farimah</t>
+  </si>
+  <si>
+    <t>mohammadpour_sobhan</t>
+  </si>
+  <si>
+    <t>morsali_diana</t>
+  </si>
+  <si>
+    <t>moshalashi_mohammadjavad</t>
+  </si>
+  <si>
+    <t>mousavi</t>
+  </si>
+  <si>
+    <t>mozafar_fatemeh</t>
+  </si>
+  <si>
+    <t>mozafari_baran</t>
+  </si>
+  <si>
+    <t>naser</t>
+  </si>
+  <si>
+    <t>naseri_mahan</t>
+  </si>
+  <si>
+    <t>nazari</t>
+  </si>
+  <si>
+    <t>nazari_mohammad</t>
+  </si>
+  <si>
+    <t>nazizadeh_mani</t>
+  </si>
+  <si>
+    <t>nemati_fatemeh</t>
+  </si>
+  <si>
+    <t>noeteghad_baran</t>
+  </si>
+  <si>
+    <t>noori_sama</t>
+  </si>
+  <si>
+    <t>pishgahi_ariyan</t>
+  </si>
+  <si>
+    <t>poorrahim_amirali</t>
+  </si>
+  <si>
+    <t>rahimi_jhikan</t>
+  </si>
+  <si>
+    <t>rahimi_kian</t>
+  </si>
+  <si>
+    <t>rahmani_bahareh</t>
+  </si>
+  <si>
+    <t>ravaghi_shayan</t>
+  </si>
+  <si>
+    <t>razani_kian</t>
+  </si>
+  <si>
+    <t>razmpoosh_soodeh</t>
+  </si>
+  <si>
+    <t>rezayi</t>
+  </si>
+  <si>
+    <t>sadeghi</t>
+  </si>
+  <si>
+    <t>safari_sogol</t>
+  </si>
+  <si>
+    <t>selyani_fatemeh</t>
+  </si>
+  <si>
+    <t>shakoori_romina</t>
+  </si>
+  <si>
+    <t>sheikhzadeh_ayhan</t>
+  </si>
+  <si>
+    <t>sorkhroo_sogand</t>
+  </si>
+  <si>
+    <t>taheri_ali</t>
+  </si>
+  <si>
+    <t>taheri_mohamad</t>
+  </si>
+  <si>
+    <t>yousefi_soheil</t>
+  </si>
+  <si>
+    <t>zaheri_masoumeh</t>
+  </si>
+  <si>
+    <t>zamani_amir</t>
   </si>
 </sst>
 </file>
@@ -757,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,7 +1003,7 @@
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,8 +1013,14 @@
       <c r="C1" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -791,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -802,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -813,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -824,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -835,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -846,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -857,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -868,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -879,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -890,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -901,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -912,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -923,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -934,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2109,6 +2349,386 @@
       </c>
       <c r="C122" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
